--- a/实施周数据-李登林组/3月/11周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/3月/11周/实施周数据-李登林组-别伟超.xlsx
@@ -2707,11 +2707,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2797,8 +2797,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2842,42 +2870,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2885,10 +2887,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2915,26 +2916,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3016,6 +3016,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3029,6 +3053,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3077,72 +3143,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3549,21 +3549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3584,26 +3569,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3640,6 +3605,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3652,10 +3652,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3664,16 +3664,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3682,123 +3682,123 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -3806,7 +3806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3991,21 +3991,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4515,440 +4500,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="105" t="s">
+      <c r="K2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="L2" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="107" t="s">
+      <c r="M2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="108" t="s">
+      <c r="N2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="73"/>
-      <c r="B3" s="80" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83">
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84">
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111" t="e">
+      <c r="J3" s="105"/>
+      <c r="K3" s="106" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="112">
+      <c r="L3" s="107">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="113">
+      <c r="M3" s="108">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="114" t="e">
+      <c r="N3" s="109" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89">
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="90">
+      <c r="G4" s="85"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="115"/>
-      <c r="K4" s="111" t="e">
+      <c r="J4" s="110"/>
+      <c r="K4" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="112">
+      <c r="L4" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="113">
+      <c r="M4" s="108">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="114" t="e">
+      <c r="N4" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89">
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="90">
+      <c r="G5" s="85"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="115"/>
-      <c r="K5" s="111" t="e">
+      <c r="J5" s="110"/>
+      <c r="K5" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="112">
+      <c r="L5" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="113">
+      <c r="M5" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="114" t="e">
+      <c r="N5" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="87" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89">
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="90">
+      <c r="G6" s="85"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="111" t="e">
+      <c r="J6" s="110"/>
+      <c r="K6" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="112">
+      <c r="L6" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="113">
+      <c r="M6" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="114" t="e">
+      <c r="N6" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89">
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="90">
+      <c r="G7" s="85"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="111" t="e">
+      <c r="J7" s="110"/>
+      <c r="K7" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="112">
+      <c r="L7" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="113">
+      <c r="M7" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="114" t="e">
+      <c r="N7" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="85"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89">
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="90">
+      <c r="G8" s="85"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="115"/>
-      <c r="K8" s="111" t="e">
+      <c r="J8" s="110"/>
+      <c r="K8" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="112">
+      <c r="L8" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="113">
+      <c r="M8" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="114" t="e">
+      <c r="N8" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89">
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="90">
+      <c r="G9" s="85"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="115"/>
-      <c r="K9" s="111" t="e">
+      <c r="J9" s="110"/>
+      <c r="K9" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="112">
+      <c r="L9" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="113">
+      <c r="M9" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="114" t="e">
+      <c r="N9" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="85"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="91" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94">
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="95">
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="117" t="e">
+      <c r="J10" s="111"/>
+      <c r="K10" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="118">
+      <c r="L10" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="119">
+      <c r="M10" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="120" t="e">
+      <c r="N10" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="100">
+      <c r="D11" s="95">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="101">
+      <c r="F11" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="100">
+      <c r="G11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="100">
+      <c r="H11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="101">
+      <c r="I11" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="100">
+      <c r="J11" s="95">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="121" t="e">
+      <c r="K11" s="116" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="101">
+      <c r="L11" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="101">
+      <c r="M11" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="122" t="e">
+      <c r="N11" s="117" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4964,12 +4949,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P757"/>
+  <dimension ref="A1:P756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B389" sqref="B389"/>
+      <selection pane="bottomLeft" activeCell="E369" sqref="E369:E376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9243,7 +9228,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="123" t="s">
+      <c r="O95" s="118" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -21679,31 +21664,31 @@
       <c r="F359" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G359" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H359" s="64">
+      <c r="G359" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H359" s="42">
         <v>76131959</v>
       </c>
-      <c r="I359" s="64" t="s">
+      <c r="I359" s="42" t="s">
         <v>810</v>
       </c>
-      <c r="J359" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K359" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L359" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M359" s="64" t="s">
+      <c r="J359" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K359" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L359" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M359" s="42" t="s">
         <v>811</v>
       </c>
-      <c r="N359" s="67" t="s">
+      <c r="N359" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O359" s="64">
+      <c r="O359" s="42">
         <v>18766011025</v>
       </c>
       <c r="P359" s="15" t="s">
@@ -21729,31 +21714,31 @@
       <c r="F360" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G360" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H360" s="64">
+      <c r="G360" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H360" s="42">
         <v>76132085</v>
       </c>
-      <c r="I360" s="64" t="s">
+      <c r="I360" s="42" t="s">
         <v>812</v>
       </c>
-      <c r="J360" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K360" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L360" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M360" s="64" t="s">
+      <c r="J360" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K360" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L360" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M360" s="42" t="s">
         <v>813</v>
       </c>
-      <c r="N360" s="67" t="s">
+      <c r="N360" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O360" s="64">
+      <c r="O360" s="42">
         <v>18516327670</v>
       </c>
       <c r="P360" s="15" t="s">
@@ -21779,31 +21764,31 @@
       <c r="F361" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G361" s="64" t="s">
+      <c r="G361" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="H361" s="64">
+      <c r="H361" s="42">
         <v>76132178</v>
       </c>
-      <c r="I361" s="64" t="s">
+      <c r="I361" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J361" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K361" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L361" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M361" s="64" t="s">
+      <c r="J361" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K361" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L361" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M361" s="42" t="s">
         <v>815</v>
       </c>
-      <c r="N361" s="67" t="s">
+      <c r="N361" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O361" s="68">
+      <c r="O361" s="39">
         <v>13686624337</v>
       </c>
       <c r="P361" s="15" t="s">
@@ -21829,31 +21814,31 @@
       <c r="F362" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G362" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H362" s="64">
+      <c r="G362" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H362" s="42">
         <v>76132679</v>
       </c>
-      <c r="I362" s="64" t="s">
+      <c r="I362" s="42" t="s">
         <v>816</v>
       </c>
-      <c r="J362" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K362" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L362" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M362" s="68" t="s">
+      <c r="J362" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K362" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L362" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M362" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="N362" s="67" t="s">
+      <c r="N362" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O362" s="64">
+      <c r="O362" s="42">
         <v>17828999500</v>
       </c>
       <c r="P362" s="15" t="s">
@@ -21879,31 +21864,31 @@
       <c r="F363" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G363" s="64" t="s">
+      <c r="G363" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H363" s="64">
+      <c r="H363" s="42">
         <v>76133685</v>
       </c>
-      <c r="I363" s="64" t="s">
+      <c r="I363" s="42" t="s">
         <v>817</v>
       </c>
-      <c r="J363" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K363" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L363" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M363" s="64" t="s">
+      <c r="J363" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K363" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L363" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M363" s="42" t="s">
         <v>818</v>
       </c>
-      <c r="N363" s="67" t="s">
+      <c r="N363" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O363" s="64">
+      <c r="O363" s="42">
         <v>18171241882</v>
       </c>
       <c r="P363" s="15" t="s">
@@ -21929,31 +21914,31 @@
       <c r="F364" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G364" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H364" s="64">
+      <c r="G364" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H364" s="42">
         <v>76133831</v>
       </c>
-      <c r="I364" s="64" t="s">
+      <c r="I364" s="42" t="s">
         <v>819</v>
       </c>
-      <c r="J364" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K364" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L364" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M364" s="64" t="s">
+      <c r="J364" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K364" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L364" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M364" s="42" t="s">
         <v>820</v>
       </c>
-      <c r="N364" s="67" t="s">
+      <c r="N364" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O364" s="64">
+      <c r="O364" s="42">
         <v>13916097119</v>
       </c>
       <c r="P364" s="15" t="s">
@@ -21979,31 +21964,31 @@
       <c r="F365" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G365" s="64" t="s">
+      <c r="G365" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H365" s="64">
+      <c r="H365" s="42">
         <v>76135382</v>
       </c>
-      <c r="I365" s="64" t="s">
+      <c r="I365" s="42" t="s">
         <v>821</v>
       </c>
-      <c r="J365" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K365" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L365" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M365" s="64" t="s">
+      <c r="J365" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K365" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L365" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M365" s="42" t="s">
         <v>822</v>
       </c>
-      <c r="N365" s="67" t="s">
+      <c r="N365" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O365" s="64">
+      <c r="O365" s="42">
         <v>13813923915</v>
       </c>
       <c r="P365" s="15" t="s">
@@ -22029,31 +22014,31 @@
       <c r="F366" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G366" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H366" s="64">
+      <c r="G366" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H366" s="42">
         <v>76116670</v>
       </c>
-      <c r="I366" s="64" t="s">
+      <c r="I366" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="J366" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K366" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L366" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M366" s="64" t="s">
+      <c r="J366" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K366" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L366" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M366" s="42" t="s">
         <v>823</v>
       </c>
-      <c r="N366" s="67" t="s">
+      <c r="N366" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O366" s="64">
+      <c r="O366" s="42">
         <v>15921618009</v>
       </c>
       <c r="P366" s="15" t="s">
@@ -22079,31 +22064,31 @@
       <c r="F367" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G367" s="64" t="s">
+      <c r="G367" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H367" s="64">
+      <c r="H367" s="42">
         <v>76136538</v>
       </c>
-      <c r="I367" s="64" t="s">
+      <c r="I367" s="42" t="s">
         <v>824</v>
       </c>
-      <c r="J367" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K367" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L367" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M367" s="64" t="s">
+      <c r="J367" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K367" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L367" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M367" s="42" t="s">
         <v>825</v>
       </c>
-      <c r="N367" s="67" t="s">
+      <c r="N367" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O367" s="64">
+      <c r="O367" s="42">
         <v>15043335210</v>
       </c>
       <c r="P367" s="15" t="s">
@@ -22129,31 +22114,31 @@
       <c r="F368" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G368" s="64" t="s">
+      <c r="G368" s="42" t="s">
         <v>634</v>
       </c>
-      <c r="H368" s="64">
+      <c r="H368" s="42">
         <v>76136880</v>
       </c>
-      <c r="I368" s="64" t="s">
+      <c r="I368" s="42" t="s">
         <v>826</v>
       </c>
-      <c r="J368" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K368" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L368" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M368" s="64" t="s">
+      <c r="J368" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K368" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L368" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M368" s="42" t="s">
         <v>827</v>
       </c>
-      <c r="N368" s="67" t="s">
+      <c r="N368" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O368" s="64">
+      <c r="O368" s="42">
         <v>15262623387</v>
       </c>
       <c r="P368" s="15" t="s">
@@ -22179,32 +22164,32 @@
       <c r="F369" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G369" s="65" t="s">
-        <v>395</v>
-      </c>
-      <c r="H369" s="64">
-        <v>76129327</v>
-      </c>
-      <c r="I369" s="66" t="s">
-        <v>748</v>
-      </c>
-      <c r="J369" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K369" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L369" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M369" s="65" t="s">
-        <v>749</v>
-      </c>
-      <c r="N369" s="67" t="s">
+      <c r="G369" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H369" s="42">
+        <v>76135061</v>
+      </c>
+      <c r="I369" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="J369" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K369" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L369" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M369" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="N369" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O369" s="65">
-        <v>18972397755</v>
+      <c r="O369" s="16">
+        <v>13601994879</v>
       </c>
       <c r="P369" s="15" t="s">
         <v>174</v>
@@ -22229,32 +22214,32 @@
       <c r="F370" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G370" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H370" s="64">
-        <v>76135061</v>
-      </c>
-      <c r="I370" s="66" t="s">
-        <v>828</v>
-      </c>
-      <c r="J370" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K370" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L370" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M370" s="65" t="s">
-        <v>829</v>
-      </c>
-      <c r="N370" s="67" t="s">
+      <c r="G370" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="H370" s="42">
+        <v>76135063</v>
+      </c>
+      <c r="I370" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="J370" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K370" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L370" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M370" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="N370" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O370" s="65">
-        <v>13601994879</v>
+      <c r="O370" s="16">
+        <v>15813826521</v>
       </c>
       <c r="P370" s="15" t="s">
         <v>174</v>
@@ -22279,32 +22264,32 @@
       <c r="F371" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G371" s="65" t="s">
-        <v>688</v>
-      </c>
-      <c r="H371" s="64">
-        <v>76135063</v>
-      </c>
-      <c r="I371" s="66" t="s">
-        <v>830</v>
-      </c>
-      <c r="J371" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K371" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L371" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M371" s="65" t="s">
-        <v>831</v>
-      </c>
-      <c r="N371" s="67" t="s">
+      <c r="G371" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="H371" s="42">
+        <v>76130055</v>
+      </c>
+      <c r="I371" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="J371" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K371" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L371" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M371" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="N371" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O371" s="65">
-        <v>15813826521</v>
+      <c r="O371" s="16">
+        <v>15009511134</v>
       </c>
       <c r="P371" s="15" t="s">
         <v>174</v>
@@ -22329,32 +22314,32 @@
       <c r="F372" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G372" s="65" t="s">
-        <v>832</v>
-      </c>
-      <c r="H372" s="64">
-        <v>76130055</v>
-      </c>
-      <c r="I372" s="66" t="s">
-        <v>833</v>
-      </c>
-      <c r="J372" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K372" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L372" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M372" s="65" t="s">
-        <v>834</v>
-      </c>
-      <c r="N372" s="67" t="s">
+      <c r="G372" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H372" s="42">
+        <v>76129807</v>
+      </c>
+      <c r="I372" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="J372" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K372" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L372" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M372" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="N372" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O372" s="65">
-        <v>15009511134</v>
+      <c r="O372" s="16">
+        <v>18638021596</v>
       </c>
       <c r="P372" s="15" t="s">
         <v>174</v>
@@ -22379,32 +22364,32 @@
       <c r="F373" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G373" s="65" t="s">
-        <v>540</v>
-      </c>
-      <c r="H373" s="64">
-        <v>76129807</v>
-      </c>
-      <c r="I373" s="66" t="s">
-        <v>835</v>
-      </c>
-      <c r="J373" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K373" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L373" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M373" s="65" t="s">
-        <v>836</v>
-      </c>
-      <c r="N373" s="67" t="s">
+      <c r="G373" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H373" s="42">
+        <v>76136739</v>
+      </c>
+      <c r="I373" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="J373" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K373" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L373" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M373" s="16" t="s">
+        <v>838</v>
+      </c>
+      <c r="N373" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O373" s="65">
-        <v>18638021596</v>
+      <c r="O373" s="16">
+        <v>15000271949</v>
       </c>
       <c r="P373" s="15" t="s">
         <v>174</v>
@@ -22429,32 +22414,32 @@
       <c r="F374" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G374" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H374" s="64">
-        <v>76136739</v>
-      </c>
-      <c r="I374" s="66" t="s">
-        <v>837</v>
-      </c>
-      <c r="J374" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K374" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L374" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M374" s="65" t="s">
-        <v>838</v>
-      </c>
-      <c r="N374" s="67" t="s">
+      <c r="G374" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H374" s="42">
+        <v>76136825</v>
+      </c>
+      <c r="I374" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="J374" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K374" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L374" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M374" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="N374" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O374" s="65">
-        <v>15000271949</v>
+      <c r="O374" s="16">
+        <v>15001777205</v>
       </c>
       <c r="P374" s="15" t="s">
         <v>174</v>
@@ -22479,32 +22464,32 @@
       <c r="F375" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G375" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H375" s="64">
-        <v>76136825</v>
-      </c>
-      <c r="I375" s="66" t="s">
-        <v>839</v>
-      </c>
-      <c r="J375" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K375" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L375" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M375" s="65" t="s">
-        <v>840</v>
-      </c>
-      <c r="N375" s="67" t="s">
+      <c r="G375" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="H375" s="42">
+        <v>76137190</v>
+      </c>
+      <c r="I375" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="J375" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K375" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L375" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M375" s="16" t="s">
+        <v>842</v>
+      </c>
+      <c r="N375" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O375" s="65">
-        <v>15001777205</v>
+      <c r="O375" s="16">
+        <v>15813738929</v>
       </c>
       <c r="P375" s="15" t="s">
         <v>174</v>
@@ -22529,32 +22514,32 @@
       <c r="F376" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G376" s="65" t="s">
-        <v>688</v>
-      </c>
-      <c r="H376" s="64">
-        <v>76137190</v>
-      </c>
-      <c r="I376" s="66" t="s">
-        <v>841</v>
-      </c>
-      <c r="J376" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K376" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L376" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M376" s="65" t="s">
-        <v>842</v>
-      </c>
-      <c r="N376" s="67" t="s">
+      <c r="G376" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H376" s="42">
+        <v>76131069</v>
+      </c>
+      <c r="I376" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="J376" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K376" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L376" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M376" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="N376" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O376" s="65">
-        <v>15813738929</v>
+      <c r="O376" s="16">
+        <v>13906257206</v>
       </c>
       <c r="P376" s="15" t="s">
         <v>174</v>
@@ -22573,41 +22558,41 @@
       <c r="D377" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E377" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="F377" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="G377" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="H377" s="64">
-        <v>76131069</v>
-      </c>
-      <c r="I377" s="66" t="s">
-        <v>843</v>
-      </c>
-      <c r="J377" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K377" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L377" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M377" s="65" t="s">
-        <v>844</v>
-      </c>
-      <c r="N377" s="67" t="s">
+      <c r="E377" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="F377" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="G377" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H377" s="16">
+        <v>76126353</v>
+      </c>
+      <c r="I377" s="16" t="s">
+        <v>846</v>
+      </c>
+      <c r="J377" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K377" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L377" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M377" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="N377" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O377" s="65">
-        <v>13906257206</v>
+      <c r="O377" s="16">
+        <v>13801585556</v>
       </c>
       <c r="P377" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -22629,32 +22614,32 @@
       <c r="F378" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G378" s="66" t="s">
+      <c r="G378" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H378" s="66">
-        <v>76126353</v>
-      </c>
-      <c r="I378" s="66" t="s">
-        <v>846</v>
-      </c>
-      <c r="J378" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K378" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L378" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M378" s="66" t="s">
-        <v>847</v>
-      </c>
-      <c r="N378" s="67" t="s">
+      <c r="H378" s="16">
+        <v>76136089</v>
+      </c>
+      <c r="I378" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="J378" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K378" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L378" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M378" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="N378" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O378" s="66">
-        <v>13801585556</v>
+      <c r="O378" s="16">
+        <v>15905192673</v>
       </c>
       <c r="P378" s="15" t="s">
         <v>171</v>
@@ -22679,32 +22664,32 @@
       <c r="F379" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G379" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="H379" s="66">
-        <v>76136089</v>
-      </c>
-      <c r="I379" s="66" t="s">
-        <v>848</v>
-      </c>
-      <c r="J379" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K379" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L379" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M379" s="66" t="s">
-        <v>849</v>
-      </c>
-      <c r="N379" s="67" t="s">
+      <c r="G379" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H379" s="16">
+        <v>76126350</v>
+      </c>
+      <c r="I379" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="J379" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K379" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L379" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M379" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="N379" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O379" s="66">
-        <v>15905192673</v>
+      <c r="O379" s="16">
+        <v>13955995051</v>
       </c>
       <c r="P379" s="15" t="s">
         <v>171</v>
@@ -22729,32 +22714,32 @@
       <c r="F380" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G380" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="H380" s="66">
-        <v>76126350</v>
-      </c>
-      <c r="I380" s="66" t="s">
-        <v>850</v>
-      </c>
-      <c r="J380" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K380" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L380" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M380" s="66" t="s">
-        <v>851</v>
-      </c>
-      <c r="N380" s="67" t="s">
+      <c r="G380" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H380" s="16">
+        <v>76127920</v>
+      </c>
+      <c r="I380" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="J380" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K380" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L380" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M380" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="N380" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O380" s="66">
-        <v>13955995051</v>
+      <c r="O380" s="16">
+        <v>18616873060</v>
       </c>
       <c r="P380" s="15" t="s">
         <v>171</v>
@@ -22779,32 +22764,32 @@
       <c r="F381" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G381" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H381" s="66">
-        <v>76127920</v>
-      </c>
-      <c r="I381" s="66" t="s">
-        <v>852</v>
-      </c>
-      <c r="J381" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K381" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L381" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M381" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="N381" s="67" t="s">
+      <c r="G381" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H381" s="16">
+        <v>76126352</v>
+      </c>
+      <c r="I381" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="J381" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K381" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L381" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M381" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="N381" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O381" s="66">
-        <v>18616873060</v>
+      <c r="O381" s="16">
+        <v>18502560868</v>
       </c>
       <c r="P381" s="15" t="s">
         <v>171</v>
@@ -22829,32 +22814,32 @@
       <c r="F382" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G382" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="H382" s="66">
-        <v>76126352</v>
-      </c>
-      <c r="I382" s="66" t="s">
-        <v>619</v>
-      </c>
-      <c r="J382" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K382" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L382" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M382" s="66" t="s">
-        <v>847</v>
-      </c>
-      <c r="N382" s="67" t="s">
+      <c r="G382" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H382" s="16">
+        <v>76125717</v>
+      </c>
+      <c r="I382" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="J382" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K382" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L382" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M382" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="N382" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O382" s="66">
-        <v>18502560868</v>
+      <c r="O382" s="16">
+        <v>18217199515</v>
       </c>
       <c r="P382" s="15" t="s">
         <v>171</v>
@@ -22874,37 +22859,37 @@
         <v>42</v>
       </c>
       <c r="E383" s="8" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="F383" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="G383" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H383" s="66">
-        <v>76125717</v>
-      </c>
-      <c r="I383" s="66" t="s">
-        <v>853</v>
-      </c>
-      <c r="J383" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K383" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L383" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M383" s="66" t="s">
-        <v>854</v>
-      </c>
-      <c r="N383" s="67" t="s">
+        <v>855</v>
+      </c>
+      <c r="G383" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H383" s="16">
+        <v>76116978</v>
+      </c>
+      <c r="I383" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="J383" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K383" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L383" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M383" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="N383" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O383" s="66">
-        <v>18217199515</v>
+      <c r="O383" s="16">
+        <v>15779553685</v>
       </c>
       <c r="P383" s="15" t="s">
         <v>171</v>
@@ -22929,32 +22914,32 @@
       <c r="F384" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="G384" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="H384" s="66">
-        <v>76116978</v>
-      </c>
-      <c r="I384" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="J384" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K384" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L384" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M384" s="66" t="s">
-        <v>857</v>
-      </c>
-      <c r="N384" s="67" t="s">
+      <c r="G384" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H384" s="16">
+        <v>76116868</v>
+      </c>
+      <c r="I384" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="J384" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K384" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L384" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M384" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="N384" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O384" s="66">
-        <v>15779553685</v>
+      <c r="O384" s="16">
+        <v>15250597823</v>
       </c>
       <c r="P384" s="15" t="s">
         <v>171</v>
@@ -22979,32 +22964,32 @@
       <c r="F385" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="G385" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="H385" s="66">
-        <v>76116868</v>
-      </c>
-      <c r="I385" s="66" t="s">
-        <v>858</v>
-      </c>
-      <c r="J385" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K385" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L385" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M385" s="66" t="s">
-        <v>859</v>
-      </c>
-      <c r="N385" s="67" t="s">
+      <c r="G385" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H385" s="16">
+        <v>76115972</v>
+      </c>
+      <c r="I385" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="J385" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K385" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L385" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M385" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="N385" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O385" s="66">
-        <v>15250597823</v>
+      <c r="O385" s="16">
+        <v>15868338050</v>
       </c>
       <c r="P385" s="15" t="s">
         <v>171</v>
@@ -23029,32 +23014,32 @@
       <c r="F386" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="G386" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="H386" s="66">
-        <v>76115972</v>
-      </c>
-      <c r="I386" s="66" t="s">
-        <v>860</v>
-      </c>
-      <c r="J386" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K386" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L386" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M386" s="66" t="s">
-        <v>861</v>
-      </c>
-      <c r="N386" s="67" t="s">
+      <c r="G386" s="42" t="s">
+        <v>862</v>
+      </c>
+      <c r="H386" s="16">
+        <v>76123765</v>
+      </c>
+      <c r="I386" s="42" t="s">
+        <v>863</v>
+      </c>
+      <c r="J386" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K386" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L386" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M386" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="N386" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O386" s="66">
-        <v>15868338050</v>
+      <c r="O386" s="42">
+        <v>13715764510</v>
       </c>
       <c r="P386" s="15" t="s">
         <v>171</v>
@@ -23079,86 +23064,43 @@
       <c r="F387" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="G387" s="64" t="s">
-        <v>862</v>
-      </c>
-      <c r="H387" s="66">
-        <v>76123765</v>
-      </c>
-      <c r="I387" s="64" t="s">
-        <v>863</v>
-      </c>
-      <c r="J387" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K387" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L387" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M387" s="64" t="s">
-        <v>658</v>
-      </c>
-      <c r="N387" s="67" t="s">
+      <c r="G387" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H387" s="16">
+        <v>76128629</v>
+      </c>
+      <c r="I387" s="16" t="s">
+        <v>864</v>
+      </c>
+      <c r="J387" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K387" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L387" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M387" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="N387" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O387" s="64">
-        <v>13715764510</v>
+      <c r="O387" s="16">
+        <v>15906739239</v>
       </c>
       <c r="P387" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="388" spans="1:16">
-      <c r="A388" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B388" s="19">
-        <v>11</v>
-      </c>
-      <c r="C388" s="18">
-        <v>43173</v>
-      </c>
-      <c r="D388" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E388" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="F388" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="G388" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="H388" s="65">
-        <v>76128629</v>
-      </c>
-      <c r="I388" s="65" t="s">
-        <v>864</v>
-      </c>
-      <c r="J388" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K388" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L388" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M388" s="65" t="s">
-        <v>865</v>
-      </c>
-      <c r="N388" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="O388" s="65">
-        <v>15906739239</v>
-      </c>
-      <c r="P388" s="15" t="s">
-        <v>171</v>
-      </c>
+      <c r="A388" s="22"/>
+      <c r="B388" s="21"/>
+      <c r="C388" s="18"/>
+      <c r="D388" s="45"/>
+      <c r="P388" s="8"/>
     </row>
     <row r="389" spans="1:16">
       <c r="A389" s="22"/>
@@ -23184,8 +23126,6 @@
     <row r="392" spans="1:16">
       <c r="A392" s="22"/>
       <c r="B392" s="21"/>
-      <c r="C392" s="18"/>
-      <c r="D392" s="45"/>
       <c r="P392" s="8"/>
     </row>
     <row r="393" spans="1:16">
@@ -23289,12 +23229,12 @@
       <c r="P412" s="8"/>
     </row>
     <row r="413" spans="1:16">
-      <c r="A413" s="22"/>
+      <c r="A413" s="64"/>
       <c r="B413" s="21"/>
       <c r="P413" s="8"/>
     </row>
     <row r="414" spans="1:16">
-      <c r="A414" s="69"/>
+      <c r="A414" s="22"/>
       <c r="B414" s="21"/>
       <c r="P414" s="8"/>
     </row>
@@ -23379,1226 +23319,1221 @@
       <c r="P430" s="8"/>
     </row>
     <row r="431" spans="1:16">
-      <c r="A431" s="22"/>
+      <c r="A431" s="64"/>
       <c r="B431" s="21"/>
       <c r="P431" s="8"/>
     </row>
     <row r="432" spans="1:16">
-      <c r="A432" s="69"/>
+      <c r="A432" s="22"/>
       <c r="B432" s="21"/>
       <c r="P432" s="8"/>
     </row>
     <row r="433" spans="1:16">
-      <c r="A433" s="22"/>
+      <c r="A433" s="64"/>
       <c r="B433" s="21"/>
       <c r="P433" s="8"/>
     </row>
     <row r="434" spans="1:16">
-      <c r="A434" s="69"/>
+      <c r="A434" s="22"/>
       <c r="B434" s="21"/>
       <c r="P434" s="8"/>
     </row>
     <row r="435" spans="1:16">
-      <c r="A435" s="22"/>
+      <c r="A435" s="64"/>
       <c r="B435" s="21"/>
       <c r="P435" s="8"/>
     </row>
     <row r="436" spans="1:16">
-      <c r="A436" s="69"/>
+      <c r="A436" s="22"/>
       <c r="B436" s="21"/>
       <c r="P436" s="8"/>
     </row>
     <row r="437" spans="1:16">
-      <c r="A437" s="22"/>
+      <c r="A437" s="64"/>
       <c r="B437" s="21"/>
       <c r="P437" s="8"/>
     </row>
     <row r="438" spans="1:16">
-      <c r="A438" s="69"/>
+      <c r="A438" s="22"/>
       <c r="B438" s="21"/>
       <c r="P438" s="8"/>
     </row>
     <row r="439" spans="1:16">
-      <c r="A439" s="22"/>
+      <c r="A439" s="64"/>
       <c r="B439" s="21"/>
       <c r="P439" s="8"/>
     </row>
     <row r="440" spans="1:16">
-      <c r="A440" s="69"/>
+      <c r="A440" s="22"/>
       <c r="B440" s="21"/>
       <c r="P440" s="8"/>
     </row>
     <row r="441" spans="1:16">
-      <c r="A441" s="22"/>
+      <c r="A441" s="64"/>
       <c r="B441" s="21"/>
       <c r="P441" s="8"/>
     </row>
     <row r="442" spans="1:16">
-      <c r="A442" s="69"/>
+      <c r="A442" s="22"/>
       <c r="B442" s="21"/>
       <c r="P442" s="8"/>
     </row>
     <row r="443" spans="1:16">
-      <c r="A443" s="22"/>
+      <c r="A443" s="64"/>
       <c r="B443" s="21"/>
       <c r="P443" s="8"/>
     </row>
     <row r="444" spans="1:16">
-      <c r="A444" s="69"/>
+      <c r="A444" s="22"/>
       <c r="B444" s="21"/>
       <c r="P444" s="8"/>
     </row>
     <row r="445" spans="1:16">
-      <c r="A445" s="22"/>
+      <c r="A445" s="64"/>
       <c r="B445" s="21"/>
       <c r="P445" s="8"/>
     </row>
     <row r="446" spans="1:16">
-      <c r="A446" s="69"/>
+      <c r="A446" s="22"/>
       <c r="B446" s="21"/>
       <c r="P446" s="8"/>
     </row>
     <row r="447" spans="1:16">
-      <c r="A447" s="22"/>
+      <c r="A447" s="64"/>
       <c r="B447" s="21"/>
       <c r="P447" s="8"/>
     </row>
     <row r="448" spans="1:16">
-      <c r="A448" s="69"/>
+      <c r="A448" s="22"/>
       <c r="B448" s="21"/>
       <c r="P448" s="8"/>
     </row>
     <row r="449" spans="1:16">
-      <c r="A449" s="22"/>
+      <c r="A449" s="64"/>
       <c r="B449" s="21"/>
       <c r="P449" s="8"/>
     </row>
     <row r="450" spans="1:16">
-      <c r="A450" s="69"/>
+      <c r="A450" s="22"/>
       <c r="B450" s="21"/>
       <c r="P450" s="8"/>
     </row>
     <row r="451" spans="1:16">
-      <c r="A451" s="22"/>
+      <c r="A451" s="64"/>
       <c r="B451" s="21"/>
       <c r="P451" s="8"/>
     </row>
     <row r="452" spans="1:16">
-      <c r="A452" s="69"/>
+      <c r="A452" s="22"/>
       <c r="B452" s="21"/>
       <c r="P452" s="8"/>
     </row>
     <row r="453" spans="1:16">
-      <c r="A453" s="22"/>
+      <c r="A453" s="64"/>
       <c r="B453" s="21"/>
       <c r="P453" s="8"/>
     </row>
     <row r="454" spans="1:16">
-      <c r="A454" s="69"/>
+      <c r="A454" s="22"/>
       <c r="B454" s="21"/>
       <c r="P454" s="8"/>
     </row>
     <row r="455" spans="1:16">
-      <c r="A455" s="22"/>
+      <c r="A455" s="64"/>
       <c r="B455" s="21"/>
       <c r="P455" s="8"/>
     </row>
     <row r="456" spans="1:16">
-      <c r="A456" s="69"/>
+      <c r="A456" s="22"/>
       <c r="B456" s="21"/>
       <c r="P456" s="8"/>
     </row>
     <row r="457" spans="1:16">
-      <c r="A457" s="22"/>
+      <c r="A457" s="64"/>
       <c r="B457" s="21"/>
       <c r="P457" s="8"/>
     </row>
     <row r="458" spans="1:16">
-      <c r="A458" s="69"/>
+      <c r="A458" s="22"/>
       <c r="B458" s="21"/>
       <c r="P458" s="8"/>
     </row>
     <row r="459" spans="1:16">
-      <c r="A459" s="22"/>
+      <c r="A459" s="64"/>
       <c r="B459" s="21"/>
       <c r="P459" s="8"/>
     </row>
     <row r="460" spans="1:16">
-      <c r="A460" s="69"/>
+      <c r="A460" s="22"/>
       <c r="B460" s="21"/>
       <c r="P460" s="8"/>
     </row>
     <row r="461" spans="1:16">
-      <c r="A461" s="22"/>
+      <c r="A461" s="64"/>
       <c r="B461" s="21"/>
       <c r="P461" s="8"/>
     </row>
     <row r="462" spans="1:16">
-      <c r="A462" s="69"/>
+      <c r="A462" s="22"/>
       <c r="B462" s="21"/>
       <c r="P462" s="8"/>
     </row>
     <row r="463" spans="1:16">
-      <c r="A463" s="22"/>
+      <c r="A463" s="64"/>
       <c r="B463" s="21"/>
       <c r="P463" s="8"/>
     </row>
     <row r="464" spans="1:16">
-      <c r="A464" s="69"/>
+      <c r="A464" s="22"/>
       <c r="B464" s="21"/>
       <c r="P464" s="8"/>
     </row>
     <row r="465" spans="1:16">
-      <c r="A465" s="22"/>
+      <c r="A465" s="64"/>
       <c r="B465" s="21"/>
       <c r="P465" s="8"/>
     </row>
     <row r="466" spans="1:16">
-      <c r="A466" s="69"/>
+      <c r="A466" s="22"/>
       <c r="B466" s="21"/>
       <c r="P466" s="8"/>
     </row>
     <row r="467" spans="1:16">
-      <c r="A467" s="22"/>
+      <c r="A467" s="64"/>
       <c r="B467" s="21"/>
       <c r="P467" s="8"/>
     </row>
     <row r="468" spans="1:16">
-      <c r="A468" s="69"/>
+      <c r="A468" s="22"/>
       <c r="B468" s="21"/>
       <c r="P468" s="8"/>
     </row>
     <row r="469" spans="1:16">
-      <c r="A469" s="22"/>
+      <c r="A469" s="64"/>
       <c r="B469" s="21"/>
       <c r="P469" s="8"/>
     </row>
     <row r="470" spans="1:16">
-      <c r="A470" s="69"/>
+      <c r="A470" s="22"/>
       <c r="B470" s="21"/>
       <c r="P470" s="8"/>
     </row>
     <row r="471" spans="1:16">
-      <c r="A471" s="22"/>
+      <c r="A471" s="64"/>
       <c r="B471" s="21"/>
       <c r="P471" s="8"/>
     </row>
     <row r="472" spans="1:16">
-      <c r="A472" s="69"/>
+      <c r="A472" s="22"/>
       <c r="B472" s="21"/>
       <c r="P472" s="8"/>
     </row>
     <row r="473" spans="1:16">
-      <c r="A473" s="22"/>
+      <c r="A473" s="64"/>
       <c r="B473" s="21"/>
       <c r="P473" s="8"/>
     </row>
     <row r="474" spans="1:16">
-      <c r="A474" s="69"/>
+      <c r="A474" s="22"/>
       <c r="B474" s="21"/>
       <c r="P474" s="8"/>
     </row>
     <row r="475" spans="1:16">
-      <c r="A475" s="22"/>
+      <c r="A475" s="64"/>
       <c r="B475" s="21"/>
       <c r="P475" s="8"/>
     </row>
     <row r="476" spans="1:16">
-      <c r="A476" s="69"/>
+      <c r="A476" s="22"/>
       <c r="B476" s="21"/>
       <c r="P476" s="8"/>
     </row>
-    <row r="477" spans="1:16">
-      <c r="A477" s="22"/>
+    <row r="477" spans="1:2">
+      <c r="A477" s="64"/>
       <c r="B477" s="21"/>
-      <c r="P477" s="8"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="69"/>
+      <c r="A478" s="22"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="22"/>
+      <c r="A479" s="64"/>
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="69"/>
+      <c r="A480" s="22"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="22"/>
+      <c r="A481" s="64"/>
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="69"/>
+      <c r="A482" s="22"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="22"/>
+      <c r="A483" s="64"/>
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="69"/>
+      <c r="A484" s="22"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="22"/>
+      <c r="A485" s="64"/>
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="69"/>
+      <c r="A486" s="22"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="22"/>
+      <c r="A487" s="64"/>
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="69"/>
+      <c r="A488" s="22"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="22"/>
+      <c r="A489" s="64"/>
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="69"/>
+      <c r="A490" s="22"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="22"/>
+      <c r="A491" s="64"/>
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="69"/>
+      <c r="A492" s="22"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="22"/>
+      <c r="A493" s="64"/>
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="69"/>
+      <c r="A494" s="22"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="22"/>
+      <c r="A495" s="64"/>
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="69"/>
+      <c r="A496" s="22"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="22"/>
+      <c r="A497" s="64"/>
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="69"/>
+      <c r="A498" s="22"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="22"/>
+      <c r="A499" s="64"/>
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="69"/>
+      <c r="A500" s="22"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="22"/>
+      <c r="A501" s="64"/>
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="69"/>
+      <c r="A502" s="22"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="22"/>
+      <c r="A503" s="64"/>
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="69"/>
+      <c r="A504" s="22"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="22"/>
+      <c r="A505" s="64"/>
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="69"/>
+      <c r="A506" s="22"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="22"/>
+      <c r="A507" s="64"/>
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="69"/>
+      <c r="A508" s="22"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="22"/>
+      <c r="A509" s="64"/>
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="69"/>
+      <c r="A510" s="22"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="22"/>
+      <c r="A511" s="64"/>
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="69"/>
+      <c r="A512" s="22"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="22"/>
+      <c r="A513" s="64"/>
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="69"/>
+      <c r="A514" s="22"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="22"/>
+      <c r="A515" s="64"/>
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="69"/>
+      <c r="A516" s="22"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="22"/>
+      <c r="A517" s="64"/>
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="69"/>
+      <c r="A518" s="22"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="22"/>
+      <c r="A519" s="64"/>
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="69"/>
+      <c r="A520" s="22"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="22"/>
+      <c r="A521" s="64"/>
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="69"/>
+      <c r="A522" s="22"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="22"/>
+      <c r="A523" s="64"/>
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="69"/>
+      <c r="A524" s="22"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="22"/>
+      <c r="A525" s="64"/>
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="69"/>
+      <c r="A526" s="22"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="22"/>
+      <c r="A527" s="64"/>
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="69"/>
+      <c r="A528" s="22"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="22"/>
+      <c r="A529" s="64"/>
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="69"/>
+      <c r="A530" s="22"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="22"/>
+      <c r="A531" s="64"/>
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="69"/>
+      <c r="A532" s="22"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="22"/>
+      <c r="A533" s="64"/>
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="69"/>
+      <c r="A534" s="22"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="22"/>
+      <c r="A535" s="64"/>
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="69"/>
+      <c r="A536" s="22"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="22"/>
+      <c r="A537" s="64"/>
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="69"/>
+      <c r="A538" s="22"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="22"/>
+      <c r="A539" s="64"/>
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="69"/>
+      <c r="A540" s="22"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="22"/>
+      <c r="A541" s="64"/>
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="69"/>
+      <c r="A542" s="22"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="22"/>
+      <c r="A543" s="64"/>
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="69"/>
+      <c r="A544" s="22"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="22"/>
+      <c r="A545" s="64"/>
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="69"/>
+      <c r="A546" s="22"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="22"/>
+      <c r="A547" s="64"/>
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="69"/>
+      <c r="A548" s="22"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="22"/>
+      <c r="A549" s="64"/>
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="69"/>
+      <c r="A550" s="22"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="22"/>
+      <c r="A551" s="64"/>
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="69"/>
+      <c r="A552" s="22"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="22"/>
+      <c r="A553" s="64"/>
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="69"/>
+      <c r="A554" s="22"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="22"/>
+      <c r="A555" s="64"/>
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="69"/>
+      <c r="A556" s="22"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="22"/>
+      <c r="A557" s="64"/>
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="69"/>
+      <c r="A558" s="22"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="22"/>
+      <c r="A559" s="64"/>
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="69"/>
+      <c r="A560" s="22"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="22"/>
+      <c r="A561" s="64"/>
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="69"/>
+      <c r="A562" s="22"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="22"/>
+      <c r="A563" s="64"/>
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="69"/>
+      <c r="A564" s="22"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="22"/>
+      <c r="A565" s="64"/>
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="69"/>
+      <c r="A566" s="22"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="22"/>
+      <c r="A567" s="64"/>
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="69"/>
+      <c r="A568" s="22"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="22"/>
+      <c r="A569" s="64"/>
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="69"/>
+      <c r="A570" s="22"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="22"/>
+      <c r="A571" s="64"/>
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="69"/>
+      <c r="A572" s="22"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="22"/>
+      <c r="A573" s="64"/>
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="69"/>
+      <c r="A574" s="22"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="22"/>
+      <c r="A575" s="64"/>
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="69"/>
+      <c r="A576" s="22"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="22"/>
+      <c r="A577" s="64"/>
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="69"/>
+      <c r="A578" s="22"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="22"/>
+      <c r="A579" s="64"/>
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="69"/>
+      <c r="A580" s="22"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="22"/>
+      <c r="A581" s="64"/>
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="69"/>
+      <c r="A582" s="22"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="22"/>
+      <c r="A583" s="64"/>
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="69"/>
+      <c r="A584" s="22"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="22"/>
+      <c r="A585" s="64"/>
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="69"/>
+      <c r="A586" s="22"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="22"/>
+      <c r="A587" s="64"/>
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="69"/>
+      <c r="A588" s="22"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="22"/>
+      <c r="A589" s="64"/>
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="69"/>
+      <c r="A590" s="22"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="22"/>
+      <c r="A591" s="64"/>
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="69"/>
-      <c r="B592" s="21"/>
+      <c r="A592" s="22"/>
+      <c r="B592" s="15"/>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="22"/>
+      <c r="A593" s="64"/>
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="69"/>
+      <c r="A594" s="22"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="22"/>
+      <c r="A595" s="64"/>
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="69"/>
+      <c r="A596" s="22"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="22"/>
+      <c r="A597" s="64"/>
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="69"/>
+      <c r="A598" s="22"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="22"/>
+      <c r="A599" s="64"/>
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="69"/>
+      <c r="A600" s="22"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="22"/>
+      <c r="A601" s="64"/>
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="69"/>
+      <c r="A602" s="22"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="22"/>
+      <c r="A603" s="64"/>
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="69"/>
+      <c r="A604" s="22"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="22"/>
+      <c r="A605" s="64"/>
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="69"/>
+      <c r="A606" s="22"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="22"/>
+      <c r="A607" s="64"/>
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="69"/>
+      <c r="A608" s="22"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="22"/>
+      <c r="A609" s="64"/>
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="69"/>
+      <c r="A610" s="22"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="22"/>
+      <c r="A611" s="64"/>
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="69"/>
+      <c r="A612" s="22"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="22"/>
+      <c r="A613" s="64"/>
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="69"/>
+      <c r="A614" s="22"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
-      <c r="A615" s="22"/>
+      <c r="A615" s="64"/>
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="69"/>
+      <c r="A616" s="22"/>
       <c r="B616" s="15"/>
     </row>
-    <row r="617" spans="1:2">
-      <c r="A617" s="22"/>
-      <c r="B617" s="15"/>
+    <row r="617" spans="1:1">
+      <c r="A617" s="65"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="70"/>
+      <c r="A618" s="12"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="12"/>
+      <c r="A619" s="65"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="70"/>
+      <c r="A620" s="12"/>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="12"/>
+      <c r="A621" s="65"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="70"/>
+      <c r="A622" s="12"/>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="12"/>
+      <c r="A623" s="65"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="70"/>
+      <c r="A624" s="12"/>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="12"/>
+      <c r="A625" s="65"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="70"/>
+      <c r="A626" s="12"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="12"/>
+      <c r="A627" s="65"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="70"/>
+      <c r="A628" s="12"/>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="12"/>
+      <c r="A629" s="65"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="70"/>
+      <c r="A630" s="12"/>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="12"/>
+      <c r="A631" s="65"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="70"/>
+      <c r="A632" s="12"/>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="12"/>
+      <c r="A633" s="65"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="70"/>
+      <c r="A634" s="12"/>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="12"/>
+      <c r="A635" s="65"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="70"/>
+      <c r="A636" s="12"/>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="12"/>
+      <c r="A637" s="65"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="70"/>
+      <c r="A638" s="12"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="12"/>
+      <c r="A639" s="65"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="70"/>
+      <c r="A640" s="12"/>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="12"/>
+      <c r="A641" s="65"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="70"/>
+      <c r="A642" s="12"/>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="12"/>
+      <c r="A643" s="65"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="70"/>
+      <c r="A644" s="12"/>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="12"/>
+      <c r="A645" s="65"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="70"/>
+      <c r="A646" s="12"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="12"/>
+      <c r="A647" s="65"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="70"/>
+      <c r="A648" s="12"/>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="12"/>
+      <c r="A649" s="65"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="70"/>
+      <c r="A650" s="12"/>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="12"/>
+      <c r="A651" s="65"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="70"/>
+      <c r="A652" s="12"/>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="12"/>
+      <c r="A653" s="65"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="70"/>
+      <c r="A654" s="12"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="12"/>
+      <c r="A655" s="65"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="70"/>
+      <c r="A656" s="12"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="12"/>
+      <c r="A657" s="65"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="70"/>
+      <c r="A658" s="12"/>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="12"/>
+      <c r="A659" s="65"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="70"/>
+      <c r="A660" s="12"/>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="12"/>
+      <c r="A661" s="65"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="70"/>
+      <c r="A662" s="12"/>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="12"/>
+      <c r="A663" s="65"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="70"/>
+      <c r="A664" s="12"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="12"/>
+      <c r="A665" s="65"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="70"/>
+      <c r="A666" s="12"/>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="12"/>
+      <c r="A667" s="65"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="70"/>
+      <c r="A668" s="12"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="12"/>
+      <c r="A669" s="65"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="70"/>
+      <c r="A670" s="12"/>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="12"/>
+      <c r="A671" s="65"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="70"/>
+      <c r="A672" s="12"/>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="12"/>
+      <c r="A673" s="65"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="70"/>
+      <c r="A674" s="12"/>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="12"/>
+      <c r="A675" s="65"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="70"/>
+      <c r="A676" s="12"/>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="12"/>
+      <c r="A677" s="65"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="70"/>
+      <c r="A678" s="12"/>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="12"/>
+      <c r="A679" s="65"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="70"/>
+      <c r="A680" s="12"/>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="12"/>
+      <c r="A681" s="65"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="70"/>
+      <c r="A682" s="12"/>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="12"/>
+      <c r="A683" s="65"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="70"/>
+      <c r="A684" s="12"/>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="12"/>
+      <c r="A685" s="65"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="70"/>
+      <c r="A686" s="12"/>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="12"/>
+      <c r="A687" s="65"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="70"/>
+      <c r="A688" s="12"/>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="12"/>
+      <c r="A689" s="65"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="70"/>
+      <c r="A690" s="12"/>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="12"/>
+      <c r="A691" s="65"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="70"/>
+      <c r="A692" s="12"/>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="12"/>
+      <c r="A693" s="65"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="70"/>
+      <c r="A694" s="12"/>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="12"/>
+      <c r="A695" s="65"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="70"/>
+      <c r="A696" s="12"/>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="12"/>
+      <c r="A697" s="65"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="70"/>
+      <c r="A698" s="12"/>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="12"/>
+      <c r="A699" s="65"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="70"/>
+      <c r="A700" s="12"/>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="12"/>
+      <c r="A701" s="65"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="70"/>
+      <c r="A702" s="12"/>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="12"/>
+      <c r="A703" s="65"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="70"/>
+      <c r="A704" s="12"/>
     </row>
     <row r="705" spans="1:1">
-      <c r="A705" s="12"/>
+      <c r="A705" s="65"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="70"/>
+      <c r="A706" s="12"/>
     </row>
     <row r="707" spans="1:1">
-      <c r="A707" s="12"/>
+      <c r="A707" s="65"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="70"/>
+      <c r="A708" s="12"/>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="12"/>
+      <c r="A709" s="65"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="70"/>
+      <c r="A710" s="12"/>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="12"/>
+      <c r="A711" s="65"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="70"/>
+      <c r="A712" s="12"/>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="12"/>
+      <c r="A713" s="65"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="70"/>
+      <c r="A714" s="12"/>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="12"/>
+      <c r="A715" s="65"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="70"/>
+      <c r="A716" s="12"/>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="12"/>
+      <c r="A717" s="65"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="70"/>
+      <c r="A718" s="12"/>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="12"/>
+      <c r="A719" s="65"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="70"/>
+      <c r="A720" s="12"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="12"/>
+      <c r="A721" s="65"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="70"/>
+      <c r="A722" s="12"/>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="12"/>
+      <c r="A723" s="65"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="70"/>
+      <c r="A724" s="12"/>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="12"/>
+      <c r="A725" s="65"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="70"/>
+      <c r="A726" s="12"/>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="12"/>
+      <c r="A727" s="65"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="70"/>
+      <c r="A728" s="12"/>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="12"/>
+      <c r="A729" s="65"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="70"/>
+      <c r="A730" s="12"/>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="12"/>
+      <c r="A731" s="65"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="70"/>
+      <c r="A732" s="12"/>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="12"/>
+      <c r="A733" s="65"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="70"/>
+      <c r="A734" s="12"/>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="12"/>
+      <c r="A735" s="65"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="70"/>
+      <c r="A736" s="12"/>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="12"/>
+      <c r="A737" s="65"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="70"/>
+      <c r="A738" s="12"/>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="12"/>
+      <c r="A739" s="65"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="70"/>
+      <c r="A740" s="12"/>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="12"/>
+      <c r="A741" s="65"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="70"/>
+      <c r="A742" s="12"/>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="12"/>
+      <c r="A743" s="65"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="70"/>
+      <c r="A744" s="12"/>
     </row>
     <row r="745" spans="1:1">
-      <c r="A745" s="12"/>
+      <c r="A745" s="65"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="70"/>
+      <c r="A746" s="12"/>
     </row>
     <row r="747" spans="1:1">
-      <c r="A747" s="12"/>
+      <c r="A747" s="65"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="70"/>
+      <c r="A748" s="12"/>
     </row>
     <row r="749" spans="1:1">
-      <c r="A749" s="12"/>
+      <c r="A749" s="65"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="70"/>
+      <c r="A750" s="12"/>
     </row>
     <row r="751" spans="1:1">
-      <c r="A751" s="12"/>
+      <c r="A751" s="65"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="70"/>
+      <c r="A752" s="12"/>
     </row>
     <row r="753" spans="1:1">
-      <c r="A753" s="12"/>
+      <c r="A753" s="65"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="70"/>
+      <c r="A754" s="12"/>
     </row>
     <row r="755" spans="1:1">
-      <c r="A755" s="12"/>
+      <c r="A755" s="65"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="70"/>
-    </row>
-    <row r="757" spans="1:1">
-      <c r="A757" s="12"/>
+      <c r="A756" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C389 C390 C391 C392 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C393:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C389 C390 C391 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C392:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D376 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D377:D392 D393:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D391 D392:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
